--- a/Guru-Insurance Portal/2 - Analysis/Test Scenarios.xlsx
+++ b/Guru-Insurance Portal/2 - Analysis/Test Scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Payment\2 - Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Manual-Testing\Guru-Insurance Portal\2 - Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E28BF4-AF83-49F0-8ECB-28865ED97A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B3F404-3EEE-4B56-A0BE-2AFBE73D7B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Questions</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>Actors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker registration </t>
+  </si>
+  <si>
+    <t>Retrieve Quotation</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Request Quotation</t>
+  </si>
+  <si>
+    <t>How the user can create broker account to  Request Quotation?</t>
+  </si>
+  <si>
+    <t>In the request quotion module at the number of accidents field is car made 30 accident will be equal to the car made 1 accident in point of calc premium?</t>
   </si>
 </sst>
 </file>
@@ -107,13 +125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J20"/>
+      <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,21 +426,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -434,7 +454,9 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -445,22 +467,22 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -471,196 +493,204 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
@@ -697,50 +727,57 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="42">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F17:J17"/>
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F13:J13"/>
     <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F18:J18"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F21:J21"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
